--- a/data/case1/14/P_device_5.xlsx
+++ b/data/case1/14/P_device_5.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.045305138457585527</v>
+        <v>0.071372064694537246</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.045305140037509746</v>
+        <v>-0.071372065184316297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.028829198792182983</v>
+        <v>0.035047236094488086</v>
       </c>
       <c r="B2" s="0">
-        <v>0.028829197103306912</v>
+        <v>-0.035047236596154205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.048311240589206064</v>
+        <v>-0.037721326101305602</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.048311242257243231</v>
+        <v>0.037721325593424941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.064471923415146071</v>
+        <v>-0.023392593344471208</v>
       </c>
       <c r="B4" s="0">
-        <v>0.064471921798422177</v>
+        <v>0.023392592821762634</v>
       </c>
     </row>
   </sheetData>
